--- a/Results/Throughput - 10 simulations average.xlsx
+++ b/Results/Throughput - 10 simulations average.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadeid/QUIC-vs-TCP-A-Performance-Evaluation-over-LTE-with-NS-3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadeid/QUIC-vs-TCP-A-Performance-Evaluation-over-LTE-with-NS-3/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D932F8FC-C6A6-7648-AEFE-6C32F77EF635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F5CF91-70C4-2A4E-A1E3-0E9003C329C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{F39ACBC6-E416-9A48-862C-2D5A23947300}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{F39ACBC6-E416-9A48-862C-2D5A23947300}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Avg. TCP Throughput (Mbps)</t>
+    <t>Distance from eNB (m)</t>
   </si>
   <si>
-    <t>Avg. QUIC Throughput (Mbps)</t>
+    <t>TCP</t>
   </si>
   <si>
-    <t>Distance from eNB (m)</t>
+    <t>QUIC</t>
   </si>
 </sst>
 </file>
@@ -114,6 +114,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -127,11 +151,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -145,9 +168,19 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12412153940990041"/>
+          <c:y val="0.1526162875473899"/>
+          <c:w val="0.83535994494038956"/>
+          <c:h val="0.59653506853310001"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -158,36 +191,71 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Avg. TCP Throughput (Mbps)</c:v>
+                  <c:v>TCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:numCache>
@@ -207,11 +275,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ABA5-FB49-9303-12F75B7E072F}"/>
+              <c16:uniqueId val="{00000000-B424-014C-84D4-E2FD2380818B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -224,36 +292,71 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Avg. QUIC Throughput (Mbps)</c:v>
+                  <c:v>QUIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$5</c:f>
               <c:numCache>
@@ -273,11 +376,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ABA5-FB49-9303-12F75B7E072F}"/>
+              <c16:uniqueId val="{00000001-B424-014C-84D4-E2FD2380818B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -289,75 +392,24 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="223642016"/>
-        <c:axId val="223645520"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="223642016"/>
+        <c:axId val="1615995664"/>
+        <c:axId val="1664088512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1615995664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="223645520"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="223645520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -365,6 +417,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance from eNodeB</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39405845968642489"/>
+              <c:y val="0.82877296587926508"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -383,9 +501,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -396,9 +513,139 @@
             <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223642016"/>
+        <c:crossAx val="1664088512"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1664088512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>bps]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8515246283637678E-2"/>
+              <c:y val="0.23092993584135316"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615995664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -409,7 +656,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39194006861473119"/>
+          <c:y val="0.89856481481481476"/>
+          <c:w val="0.24818841456723661"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -425,9 +682,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -452,11 +708,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -524,33 +783,46 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -559,38 +831,14 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -600,23 +848,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -624,71 +867,131 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -704,21 +1007,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -728,45 +1028,90 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -776,131 +1121,77 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -908,9 +1199,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -920,14 +1210,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -939,12 +1228,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -953,14 +1241,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -969,9 +1258,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -985,15 +1273,17 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1002,26 +1292,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1030,23 +1324,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>471714</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>175079</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1297215</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1614714</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>124279</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>757465</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACD578F-DECE-6BC8-E187-FDA275B8EC4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC62FD57-6CC2-B7B6-A789-8C1FE78D7617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,7 +1661,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1379,13 +1673,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/Results/Throughput - 10 simulations average.xlsx
+++ b/Results/Throughput - 10 simulations average.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadeid/QUIC-vs-TCP-A-Performance-Evaluation-over-LTE-with-NS-3/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F5CF91-70C4-2A4E-A1E3-0E9003C329C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DC82FA-40D4-5441-B7BC-F522C2F7E2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{F39ACBC6-E416-9A48-862C-2D5A23947300}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Distance from eNB (m)</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>QUIC</t>
+  </si>
+  <si>
+    <t>QUIC Avg. / TCP Avg.</t>
   </si>
 </sst>
 </file>
@@ -489,8 +492,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1658,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C5CC41-2414-4345-B181-FE8F3407EF9B}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1669,9 +1673,10 @@
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1681,8 +1686,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>250</v>
       </c>
@@ -1692,8 +1700,12 @@
       <c r="C2">
         <v>2.5299999999999998</v>
       </c>
+      <c r="E2">
+        <f>(C2/B2)</f>
+        <v>3.0853658536585367</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>750</v>
       </c>
@@ -1703,8 +1715,12 @@
       <c r="C3">
         <v>2.16</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">(C3/B3)</f>
+        <v>3.0000000000000004</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1500</v>
       </c>
@@ -1714,8 +1730,12 @@
       <c r="C4">
         <v>1.31</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.425925925925926</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2500</v>
       </c>
@@ -1724,6 +1744,10 @@
       </c>
       <c r="C5">
         <v>0.09</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
